--- a/biology/Histoire de la zoologie et de la botanique/Jean-Pierre_Lacroix_(entomologiste)/Jean-Pierre_Lacroix_(entomologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Pierre_Lacroix_(entomologiste)/Jean-Pierre_Lacroix_(entomologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre Lacroix (29 avril 1938 à Roye (Somme)-19 octobre 1989 à Boulogne-Billancourt[1]) est un entomologiste français spécialiste des Lucanidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Lacroix (29 avril 1938 à Roye (Somme)-19 octobre 1989 à Boulogne-Billancourt) est un entomologiste français spécialiste des Lucanidae.
 Il publia de nombreux travaux toujours accompagnés d'excellentes figures qu'il dessinait lui-même.
 Il rassembla une collection importante de Lucanes, riche de matériel typique et d'espèces rares. Sa collection est restée propriété de la famille.
 </t>
@@ -513,9 +525,11 @@
           <t>Livre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Coléoptères du Monde, Odontolabini 1 (Lucanidae)[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Coléoptères du Monde, Odontolabini 1 (Lucanidae)
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La liste complète de ses publications a été publiée par Hugues E. Bomans[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La liste complète de ses publications a été publiée par Hugues E. Bomans.
 Parmi ses derniers travaux on peut noter :
 1982 - Notes sur quelques Coleoptera Lucanidae nouveaux ou peu connus, Miscellanea Entomologica, 49, p. 13–30.
 1983 - Descriptions de Coleoptera Lucanidae nouveaux ou peu connus (2e note) (en collaboration avec P. Ratti et G. Taroni), Bulletin de la Société Sciences Nat, 38, p. 2–8.
@@ -583,7 +599,9 @@
           <t>Taxa dédiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aegus platypodon lacroixi Bomans, 1993
 Cyclommatus lacroixi Weinreich, 1971
@@ -618,9 +636,11 @@
           <t>Taxa décrits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des 95 noms nouveaux qu'il a créés a été publiée sur le web[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des 95 noms nouveaux qu'il a créés a été publiée sur le web.
 Parmi eux se trouvent plusieurs espèces nouvelles de Cyclommatus qui n'ont jamais fait l'objet d'une publication. En fait l'auteur préparait une révision du genre à paraître dans un volume de la série des Coléoptères du Monde, la quasi-totalité des photographies avaient été réalisées par Guy Bouloux. Une crise cardiaque à 51 ans mit fin à ce projet.
 Un autre ouvrage en préparation était une faune les Lucanes de l'île de Sumatra, grâce aux nombreux envois de spécimens capturés sur place par le Dr Eduard W. Diehl.
 </t>
